--- a/TestData/TestInfo.xlsx
+++ b/TestData/TestInfo.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\IdeaProjects\E-learningProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A5254A-73E8-4A53-AF38-FE32CA73D0D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0CE6A4-8CA1-48CA-9A84-C22D458379C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{9D52E4DC-8FC4-462E-84CE-77B3EDFD13B5}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
     <sheet name="SearchCourse" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="CardDetails" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -47,7 +47,7 @@
     <t>HTML For Beginners</t>
   </si>
   <si>
-    <t>5085 4600 3187 8112</t>
+    <t>5085 4600 3187 8179</t>
   </si>
 </sst>
 </file>
@@ -83,9 +83,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,20 +467,21 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1">
-        <v>45405</v>
+      <c r="B1" s="2">
+        <v>51147</v>
       </c>
       <c r="C1">
         <v>786</v>
